--- a/biology/Zoologie/Dyacopterus/Dyacopterus.xlsx
+++ b/biology/Zoologie/Dyacopterus/Dyacopterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dyacopterus est un genre de chauve-souris frugivores du Sud-Est asiatique.
@@ -513,13 +525,15 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (4 septembre 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (4 septembre 2020) :
 Dyacopterus brooksi Thomas, 1920
 Dyacopterus rickarti Helgen, Kock, Gomez &amp; Ingle, 2007
 Dyacopterus spadiceus (Thomas, 1890)
-Selon NCBI  (4 septembre 2020)[2] :
+Selon NCBI  (4 septembre 2020) :
 Dyacopterus rickarti Helgen, Kock, Gomez &amp; Ingle, 2007
 Dyacopterus spadiceus</t>
         </is>
@@ -549,7 +563,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les chauves-souris du genre Dyacopterus vivent dans la canopée des forêts de Thaïlande, de Malaisie, d'Indonésie et des Philippines. Elles sont sans doute assez rares, mais surtout on en connaît peu de spécimens parce qu'elles ne descendent que rarement dans le sous-couvert de la forêt, où on peut les capturer.
@@ -582,10 +598,12 @@
           <t>Lactation paternelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dyacopterus spadiceus est l'une des rares espèces connues de mammifères chez qui la lactation et l'allaitement paternels se produisent communément[3]. Le volume de lait produit par les mâles reste cependant réduit en comparaison de celui des femelles (4 à 6 µl contre 350[4]).
-Cette exception chez les mammifères a été découverte en 1992 par le zoologiste canadien Charles Francis et ses collègues. La lactation paternelle (en) pourrait présenter un avantage sélectif, en soulageant les femelles chez des chauves-souris dont la période d'allaitement est particulièrement longue[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dyacopterus spadiceus est l'une des rares espèces connues de mammifères chez qui la lactation et l'allaitement paternels se produisent communément. Le volume de lait produit par les mâles reste cependant réduit en comparaison de celui des femelles (4 à 6 µl contre 350).
+Cette exception chez les mammifères a été découverte en 1992 par le zoologiste canadien Charles Francis et ses collègues. La lactation paternelle (en) pourrait présenter un avantage sélectif, en soulageant les femelles chez des chauves-souris dont la période d'allaitement est particulièrement longue.
 </t>
         </is>
       </c>
